--- a/SourceDataTables/FigS25b.xlsx
+++ b/SourceDataTables/FigS25b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
   <si>
     <t>Age_in_days</t>
   </si>
@@ -213,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -223,14 +223,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,184 +326,184 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/SourceDataTables/FigS25b.xlsx
+++ b/SourceDataTables/FigS25b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="60">
   <si>
     <t>Age_in_days</t>
   </si>
@@ -213,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,11 +233,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -251,6 +253,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,184 +330,184 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="13" t="s">
         <v>59</v>
       </c>
     </row>

--- a/SourceDataTables/FigS25b.xlsx
+++ b/SourceDataTables/FigS25b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Age_in_days</t>
   </si>
@@ -54,13 +54,13 @@
     <t>DPYSL2</t>
   </si>
   <si>
+    <t>EDIL3</t>
+  </si>
+  <si>
     <t>FAM81A</t>
   </si>
   <si>
     <t>FGF1</t>
-  </si>
-  <si>
-    <t>FGFBP3</t>
   </si>
   <si>
     <t>FMNL2</t>
@@ -213,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,38 +223,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,8 +256,8 @@
     <col min="11" max="11" width="15.42578125" customWidth="true"/>
     <col min="12" max="12" width="14.42578125" customWidth="true"/>
     <col min="13" max="13" width="14.42578125" customWidth="true"/>
-    <col min="14" max="14" width="16.42578125" customWidth="true"/>
-    <col min="15" max="15" width="13.42578125" customWidth="true"/>
+    <col min="14" max="14" width="13.42578125" customWidth="true"/>
+    <col min="15" max="15" width="16.42578125" customWidth="true"/>
     <col min="16" max="16" width="13.42578125" customWidth="true"/>
     <col min="17" max="17" width="15.42578125" customWidth="true"/>
     <col min="18" max="18" width="13.7109375" customWidth="true"/>
@@ -330,184 +306,184 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -552,13 +528,13 @@
         <v>0.016997348200979499</v>
       </c>
       <c r="N2">
+        <v>-1.9404394804771199</v>
+      </c>
+      <c r="O2">
         <v>-0.0065595514494374797</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-3.5544196658740197</v>
-      </c>
-      <c r="P2">
-        <v>1.7700144454808699</v>
       </c>
       <c r="Q2">
         <v>-0.21030373952164999</v>
@@ -734,13 +710,13 @@
         <v>-0.08504033516637402</v>
       </c>
       <c r="N3">
+        <v>-1.4022797505272799</v>
+      </c>
+      <c r="O3">
         <v>-0.0057797467261830006</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-2.5233683022152795</v>
-      </c>
-      <c r="P3">
-        <v>1.28192632666448</v>
       </c>
       <c r="Q3">
         <v>-0.20424011616203502</v>
@@ -916,13 +892,13 @@
         <v>-0.17632011865272001</v>
       </c>
       <c r="N4">
+        <v>-0.92261303592862998</v>
+      </c>
+      <c r="O4">
         <v>-0.00500045499330739</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-1.60783906495199</v>
-      </c>
-      <c r="P4">
-        <v>0.84176696937303408</v>
       </c>
       <c r="Q4">
         <v>-0.19818702888556</v>
@@ -1098,13 +1074,13 @@
         <v>-0.253607607751413</v>
       </c>
       <c r="N5">
+        <v>-0.51892843078183204</v>
+      </c>
+      <c r="O5">
         <v>-0.0042217331888845799</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-0.84233588981046204</v>
-      </c>
-      <c r="P5">
-        <v>0.46395187770461799</v>
       </c>
       <c r="Q5">
         <v>-0.19214686484467999</v>
@@ -1280,13 +1256,13 @@
         <v>-0.31801698391118893</v>
       </c>
       <c r="N6">
+        <v>-0.18501481802876202</v>
+      </c>
+      <c r="O6">
         <v>-0.0034433746533715998</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-0.21453430762305398</v>
-      </c>
-      <c r="P6">
-        <v>0.14352593818196199</v>
       </c>
       <c r="Q6">
         <v>-0.18611730112090699</v>
@@ -1462,13 +1438,13 @@
         <v>-0.37071524639328202</v>
       </c>
       <c r="N7">
+        <v>0.085626782202164506</v>
+      </c>
+      <c r="O7">
         <v>-0.0026651695255682896</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.28845892868000605</v>
-      </c>
-      <c r="P7">
-        <v>-0.12470123823310601</v>
       </c>
       <c r="Q7">
         <v>-0.18009595758722197</v>
@@ -1644,13 +1620,13 @@
         <v>-0.41286939445892401</v>
       </c>
       <c r="N8">
+        <v>0.29949534978253001</v>
+      </c>
+      <c r="O8">
         <v>-0.0018869079442744802</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.67953706616848397</v>
-      </c>
-      <c r="P8">
-        <v>-0.34592004057875497</v>
       </c>
       <c r="Q8">
         <v>-0.174080454116607</v>
@@ -1826,13 +1802,13 @@
         <v>-0.44564642736934706</v>
       </c>
       <c r="N9">
+        <v>0.46308986458391493</v>
+      </c>
+      <c r="O9">
         <v>-0.00110838004829001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.97159335191214602</v>
-      </c>
-      <c r="P9">
-        <v>-0.52532085789315297</v>
       </c>
       <c r="Q9">
         <v>-0.168068410582043</v>
@@ -2008,13 +1984,13 @@
         <v>-0.47021334438578399</v>
       </c>
       <c r="N10">
+        <v>0.58290930647790606</v>
+      </c>
+      <c r="O10">
         <v>-0.000329375976414706</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.1775210329807599</v>
-      </c>
-      <c r="P10">
-        <v>-0.66809407921447295</v>
       </c>
       <c r="Q10">
         <v>-0.16205744685651099</v>
@@ -2190,13 +2166,13 @@
         <v>-0.48773714476946706</v>
       </c>
       <c r="N11">
+        <v>0.665452655336084</v>
+      </c>
+      <c r="O11">
         <v>0.000450314132551605</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1.3102133564441001</v>
-      </c>
-      <c r="P11">
-        <v>-0.77943009358088511</v>
       </c>
       <c r="Q11">
         <v>-0.15604518281299201</v>
@@ -2372,13 +2348,13 @@
         <v>-0.49938482778162702</v>
       </c>
       <c r="N12">
+        <v>0.71721889103003289</v>
+      </c>
+      <c r="O12">
         <v>0.00123090013980907</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.38256356937193</v>
-      </c>
-      <c r="P12">
-        <v>-0.86451929003055705</v>
       </c>
       <c r="Q12">
         <v>-0.15002923832446802</v>
@@ -2554,13 +2530,13 @@
         <v>-0.50632339268349802</v>
       </c>
       <c r="N13">
+        <v>0.74470699343133406</v>
+      </c>
+      <c r="O13">
         <v>0.0020125919065578602</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.40746491883401</v>
-      </c>
-      <c r="P13">
-        <v>-0.92855205760166004</v>
       </c>
       <c r="Q13">
         <v>-0.14400723326392001</v>
@@ -2736,13 +2712,13 @@
         <v>-0.50971983873631299</v>
       </c>
       <c r="N14">
+        <v>0.75441594241157206</v>
+      </c>
+      <c r="O14">
         <v>0.0027955992939981602</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.3978106519001103</v>
-      </c>
-      <c r="P14">
-        <v>-0.976718785332364</v>
       </c>
       <c r="Q14">
         <v>-0.13797678750432801</v>
@@ -2918,13 +2894,13 @@
         <v>-0.51074116520130197</v>
       </c>
       <c r="N15">
+        <v>0.75284471784232909</v>
+      </c>
+      <c r="O15">
         <v>0.0035801321633301205</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.3664940156400098</v>
-      </c>
-      <c r="P15">
-        <v>-1.01420986226084</v>
       </c>
       <c r="Q15">
         <v>-0.131935520918675</v>
@@ -3100,13 +3076,13 @@
         <v>-0.51055343106406803</v>
       </c>
       <c r="N16">
+        <v>0.74648702662112909</v>
+      </c>
+      <c r="O16">
         <v>0.0043664001987787394</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.3263977897952</v>
-      </c>
-      <c r="P16">
-        <v>-1.0462114910221101</v>
       </c>
       <c r="Q16">
         <v>-0.12588105673524599</v>
@@ -3282,13 +3258,13 @@
         <v>-0.51001697846762206</v>
       </c>
       <c r="N17">
+        <v>0.74012214540121091</v>
+      </c>
+      <c r="O17">
         <v>0.0051545555436898101</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.2870014557098102</v>
-      </c>
-      <c r="P17">
-        <v>-1.07654872661646</v>
       </c>
       <c r="Q17">
         <v>-0.11981210911051801</v>
@@ -3464,13 +3440,13 @@
         <v>-0.50924846514409994</v>
       </c>
       <c r="N18">
+        <v>0.73435884117267403</v>
+      </c>
+      <c r="O18">
         <v>0.00594461036791432</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.24950565754571</v>
-      </c>
-      <c r="P18">
-        <v>-1.10573550690624</v>
       </c>
       <c r="Q18">
         <v>-0.11373004598439</v>
@@ -3646,13 +3622,13 @@
         <v>-0.50825362925617501</v>
       </c>
       <c r="N19">
+        <v>0.72918385479526793</v>
+      </c>
+      <c r="O19">
         <v>0.0067365559644371794</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.21387626159057</v>
-      </c>
-      <c r="P19">
-        <v>-1.1337919209087399</v>
       </c>
       <c r="Q19">
         <v>-0.107636631105132</v>
@@ -3828,13 +3804,13 @@
         <v>-0.50703820896651697</v>
       </c>
       <c r="N20">
+        <v>0.72458392712874709</v>
+      </c>
+      <c r="O20">
         <v>0.0075303836262434797</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.18007913413205</v>
-      </c>
-      <c r="P20">
-        <v>-1.16073805764126</v>
       </c>
       <c r="Q20">
         <v>-0.101533628221013</v>
@@ -4010,13 +3986,13 @@
         <v>-0.50560794243779494</v>
       </c>
       <c r="N21">
+        <v>0.72054579903286098</v>
+      </c>
+      <c r="O21">
         <v>0.0083260846463181302</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1.1480801414578201</v>
-      </c>
-      <c r="P21">
-        <v>-1.18659400612109</v>
       </c>
       <c r="Q21">
         <v>-0.095422801080303807</v>
@@ -4192,13 +4168,13 @@
         <v>-0.50396856783268196</v>
       </c>
       <c r="N22">
+        <v>0.71705621136736408</v>
+      </c>
+      <c r="O22">
         <v>0.0091236503176461408</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.1178451498555402</v>
-      </c>
-      <c r="P22">
-        <v>-1.2113798553655402</v>
       </c>
       <c r="Q22">
         <v>-0.089305913431272602</v>
@@ -4374,13 +4350,13 @@
         <v>-0.50212582331384703</v>
       </c>
       <c r="N23">
+        <v>0.7141019049920091</v>
+      </c>
+      <c r="O23">
         <v>0.0099230719332125197</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1.08934002561287</v>
-      </c>
-      <c r="P23">
-        <v>-1.23511569439189</v>
       </c>
       <c r="Q23">
         <v>-0.083184729022189402</v>
@@ -4556,13 +4532,13 @@
         <v>-0.50008544704396007</v>
       </c>
       <c r="N24">
+        <v>0.71166962076654583</v>
+      </c>
+      <c r="O24">
         <v>0.0107243407860022</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.0625306350174799</v>
-      </c>
-      <c r="P24">
-        <v>-1.2578216122174399</v>
       </c>
       <c r="Q24">
         <v>-0.077061011601323698</v>
@@ -4738,13 +4714,13 @@
         <v>-0.497853177185694</v>
       </c>
       <c r="N25">
+        <v>0.70974609955072898</v>
+      </c>
+      <c r="O25">
         <v>0.011527448169000301</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.0373828443570401</v>
-      </c>
-      <c r="P25">
-        <v>-1.27951769785948</v>
       </c>
       <c r="Q25">
         <v>-0.070936524916945201</v>
@@ -4920,13 +4896,13 @@
         <v>-0.49543475190171793</v>
       </c>
       <c r="N26">
+        <v>0.70831808220431003</v>
+      </c>
+      <c r="O26">
         <v>0.0123323853751917</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.01386251991919</v>
-      </c>
-      <c r="P26">
-        <v>-1.30022404033532</v>
       </c>
       <c r="Q26">
         <v>-0.064813032717323402</v>
@@ -5102,13 +5078,13 @@
         <v>-0.49283590935470201</v>
       </c>
       <c r="N27">
+        <v>0.70737230958704012</v>
+      </c>
+      <c r="O27">
         <v>0.013139143697561299</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.99193552799161211</v>
-      </c>
-      <c r="P27">
-        <v>-1.3199607286622401</v>
       </c>
       <c r="Q27">
         <v>-0.0586922987507279</v>
@@ -5284,13 +5260,13 @@
         <v>-0.49006238770731797</v>
       </c>
       <c r="N28">
+        <v>0.70689552255867305</v>
+      </c>
+      <c r="O28">
         <v>0.0139477144290943</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.9715677348619659</v>
-      </c>
-      <c r="P28">
-        <v>-1.33874785185755</v>
       </c>
       <c r="Q28">
         <v>-0.052576086765428201</v>
@@ -5466,13 +5442,13 @@
         <v>-0.48711992512223601</v>
       </c>
       <c r="N29">
+        <v>0.70687446197895987</v>
+      </c>
+      <c r="O29">
         <v>0.014758088862775499</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.95272500681791583</v>
-      </c>
-      <c r="P29">
-        <v>-1.3566054989385301</v>
       </c>
       <c r="Q29">
         <v>-0.0464661605096938</v>
@@ -5648,13 +5624,13 @@
         <v>-0.48401425976212703</v>
       </c>
       <c r="N30">
+        <v>0.70729586870765404</v>
+      </c>
+      <c r="O30">
         <v>0.01557025829159</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.93537321014712216</v>
-      </c>
-      <c r="P30">
-        <v>-1.37355375892249</v>
       </c>
       <c r="Q30">
         <v>-0.0403642837317943</v>
@@ -5830,13 +5806,13 @@
         <v>-0.48075112978966206</v>
       </c>
       <c r="N31">
+        <v>0.70814648360450794</v>
+      </c>
+      <c r="O31">
         <v>0.016384214008522802</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.91947821113725503</v>
-      </c>
-      <c r="P31">
-        <v>-1.3896127208267099</v>
       </c>
       <c r="Q31">
         <v>-0.034272220179999098</v>
@@ -6012,13 +5988,13 @@
         <v>-0.47733627336751</v>
       </c>
       <c r="N32">
+        <v>0.70941304752927292</v>
+      </c>
+      <c r="O32">
         <v>0.017199947306558799</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.90500587607597094</v>
-      </c>
-      <c r="P32">
-        <v>-1.4048024736684999</v>
       </c>
       <c r="Q32">
         <v>-0.028191733602578099</v>
@@ -6194,13 +6170,13 @@
         <v>-0.47377542865834205</v>
       </c>
       <c r="N33">
+        <v>0.71108230134169992</v>
+      </c>
+      <c r="O33">
         <v>0.018017449478682997</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.89192207125093503</v>
-      </c>
-      <c r="P33">
-        <v>-1.4191431064651401</v>
       </c>
       <c r="Q33">
         <v>-0.022124587747800701</v>
@@ -6376,13 +6352,13 @@
         <v>-0.47007433382482999</v>
       </c>
       <c r="N34">
+        <v>0.71314098590154407</v>
+      </c>
+      <c r="O34">
         <v>0.018836711817880498</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.88019266294981302</v>
-      </c>
-      <c r="P34">
-        <v>-1.43265470823394</v>
       </c>
       <c r="Q34">
         <v>-0.016072546363936499</v>
@@ -6558,13 +6534,13 @@
         <v>-0.46623872702964292</v>
       </c>
       <c r="N35">
+        <v>0.71557584206855507</v>
+      </c>
+      <c r="O35">
         <v>0.0196577256171361</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.86978351746026905</v>
-      </c>
-      <c r="P35">
-        <v>-1.4453573679921801</v>
       </c>
       <c r="Q35">
         <v>-0.010037373199254801</v>
@@ -6740,13 +6716,13 @@
         <v>-0.46227434643545395</v>
       </c>
       <c r="N36">
+        <v>0.71837361070248795</v>
+      </c>
+      <c r="O36">
         <v>0.020480482169435002</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.86066050106996417</v>
-      </c>
-      <c r="P36">
-        <v>-1.4572711747571798</v>
       </c>
       <c r="Q36">
         <v>-0.00402083200202542</v>
@@ -6922,13 +6898,13 @@
         <v>-0.45818693020493106</v>
       </c>
       <c r="N37">
+        <v>0.72152103266309309</v>
+      </c>
+      <c r="O37">
         <v>0.021304972767762002</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.85278948006656408</v>
-      </c>
-      <c r="P37">
-        <v>-1.4684162175462101</v>
       </c>
       <c r="Q37">
         <v>0.0019753134794821001</v>
@@ -7104,13 +7080,13 @@
         <v>-0.453982216500745</v>
       </c>
       <c r="N38">
+        <v>0.72500484881012206</v>
+      </c>
+      <c r="O38">
         <v>0.022131188705102198</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.84613632073772993</v>
-      </c>
-      <c r="P38">
-        <v>-1.4788125853765699</v>
       </c>
       <c r="Q38">
         <v>0.0079492994969983209</v>
@@ -7286,13 +7262,13 @@
         <v>-0.44966594348556804</v>
       </c>
       <c r="N39">
+        <v>0.72881180000333101</v>
+      </c>
+      <c r="O39">
         <v>0.022959121274440601</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.84066688937113299</v>
-      </c>
-      <c r="P39">
-        <v>-1.4884803672655702</v>
       </c>
       <c r="Q39">
         <v>0.013899362302253899</v>
@@ -7468,13 +7444,13 @@
         <v>-0.44524384932207001</v>
       </c>
       <c r="N40">
+        <v>0.73292862710246698</v>
+      </c>
+      <c r="O40">
         <v>0.023788761768762101</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.83634705225442496</v>
-      </c>
-      <c r="P40">
-        <v>-1.4974396522305</v>
       </c>
       <c r="Q40">
         <v>0.019823738146978701</v>
@@ -7650,13 +7626,13 @@
         <v>-0.44072167217292102</v>
       </c>
       <c r="N41">
+        <v>0.73734207096728699</v>
+      </c>
+      <c r="O41">
         <v>0.024620101481051801</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.833142675675279</v>
-      </c>
-      <c r="P41">
-        <v>-1.5057105292886401</v>
       </c>
       <c r="Q41">
         <v>0.025720663282903601</v>
@@ -7832,13 +7808,13 @@
         <v>-0.43610515020079205</v>
       </c>
       <c r="N42">
+        <v>0.74203887245753897</v>
+      </c>
+      <c r="O42">
         <v>0.025453131704294599</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.83101962592135403</v>
-      </c>
-      <c r="P42">
-        <v>-1.5133130874573002</v>
       </c>
       <c r="Q42">
         <v>0.031588373961759002</v>
@@ -8014,13 +7990,13 @@
         <v>-0.431400021568354</v>
       </c>
       <c r="N43">
+        <v>0.74700577243297706</v>
+      </c>
+      <c r="O43">
         <v>0.026287843731475399</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.8299437692803121</v>
-      </c>
-      <c r="P43">
-        <v>-1.5202674157537801</v>
       </c>
       <c r="Q43">
         <v>0.0374251064352751</v>
@@ -8196,13 +8172,13 @@
         <v>-0.42661202443827795</v>
       </c>
       <c r="N44">
+        <v>0.75222951175335495</v>
+      </c>
+      <c r="O44">
         <v>0.027124228855579399</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0.82988097203982292</v>
-      </c>
-      <c r="P44">
-        <v>-1.52659360319536</v>
       </c>
       <c r="Q44">
         <v>0.043229096955182601</v>
@@ -8378,13 +8354,13 @@
         <v>-0.42174689697323298</v>
       </c>
       <c r="N45">
+        <v>0.75769683127842291</v>
+      </c>
+      <c r="O45">
         <v>0.0279622783695915</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.83079710048754585</v>
-      </c>
-      <c r="P45">
-        <v>-1.5323117387993401</v>
       </c>
       <c r="Q45">
         <v>0.048998581773212001</v>
@@ -8560,13 +8536,13 @@
         <v>-0.41681037733588999</v>
       </c>
       <c r="N46">
+        <v>0.76339447186793297</v>
+      </c>
+      <c r="O46">
         <v>0.028801983566496599</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0.83265802091114294</v>
-      </c>
-      <c r="P46">
-        <v>-1.53744191158302</v>
       </c>
       <c r="Q46">
         <v>0.0547317971410934</v>
@@ -8742,13 +8718,13 @@
         <v>-0.41180820368892102</v>
       </c>
       <c r="N47">
+        <v>0.76930917438163904</v>
+      </c>
+      <c r="O47">
         <v>0.0296433357392797</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.83542959959828</v>
-      </c>
-      <c r="P47">
-        <v>-1.5420042105637</v>
       </c>
       <c r="Q47">
         <v>0.060426979310557599</v>
@@ -8924,13 +8900,13 @@
         <v>-0.40674611419499607</v>
       </c>
       <c r="N48">
+        <v>0.77542767967929405</v>
+      </c>
+      <c r="O48">
         <v>0.030486326180926001</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.83907770283662497</v>
-      </c>
-      <c r="P48">
-        <v>-1.5460187247586599</v>
       </c>
       <c r="Q48">
         <v>0.066082364533334992</v>
@@ -9106,13 +9082,13 @@
         <v>-0.401629847016785</v>
       </c>
       <c r="N49">
+        <v>0.78173672862064791</v>
+      </c>
+      <c r="O49">
         <v>0.0313309461844202</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.84356819691383789</v>
-      </c>
-      <c r="P49">
-        <v>-1.5495055431852098</v>
       </c>
       <c r="Q49">
         <v>0.071696189061155796</v>
@@ -9288,13 +9264,13 @@
         <v>-0.39646514031695895</v>
       </c>
       <c r="N50">
+        <v>0.78822306206545412</v>
+      </c>
+      <c r="O50">
         <v>0.032177187042747503</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.84886694811757801</v>
-      </c>
-      <c r="P50">
-        <v>-1.55248475486064</v>
       </c>
       <c r="Q50">
         <v>0.077266689145750606</v>
@@ -9470,13 +9446,13 @@
         <v>-0.39125773225818894</v>
       </c>
       <c r="N51">
+        <v>0.79487342087346491</v>
+      </c>
+      <c r="O51">
         <v>0.033025040048892902</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.85493982273551594</v>
-      </c>
-      <c r="P51">
-        <v>-1.55497644880224</v>
       </c>
       <c r="Q51">
         <v>0.082792101038849999</v>
@@ -9652,13 +9628,13 @@
         <v>-0.38601336100314504</v>
       </c>
       <c r="N52">
+        <v>0.80167454590443299</v>
+      </c>
+      <c r="O52">
         <v>0.033874496495841198</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.86175268705531094</v>
-      </c>
-      <c r="P52">
-        <v>-1.5570007140273101</v>
       </c>
       <c r="Q52">
         <v>0.088270660992184502</v>
@@ -9834,13 +9810,13 @@
         <v>-0.38073776471449799</v>
       </c>
       <c r="N53">
+        <v>0.80861317801810906</v>
+      </c>
+      <c r="O53">
         <v>0.034725547676577498</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>0.86927140736462716</v>
-      </c>
-      <c r="P53">
-        <v>-1.5585776395531499</v>
       </c>
       <c r="Q53">
         <v>0.093700605257483902</v>
@@ -10016,13 +9992,13 @@
         <v>-0.37543668155491799</v>
       </c>
       <c r="N54">
+        <v>0.81567605807424715</v>
+      </c>
+      <c r="O54">
         <v>0.035578184884086698</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>0.87746184995113108</v>
-      </c>
-      <c r="P54">
-        <v>-1.55972731439705</v>
       </c>
       <c r="Q54">
         <v>0.099080170086479194</v>
@@ -10198,13 +10174,13 @@
         <v>-0.370115849687076</v>
       </c>
       <c r="N55">
+        <v>0.82284992693259706</v>
+      </c>
+      <c r="O55">
         <v>0.0364323994113539</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>0.88628988110247997</v>
-      </c>
-      <c r="P55">
-        <v>-1.5604698275762998</v>
       </c>
       <c r="Q55">
         <v>0.104407591730901</v>
@@ -10380,13 +10356,13 @@
         <v>-0.36478100727364293</v>
       </c>
       <c r="N56">
+        <v>0.83012152545291407</v>
+      </c>
+      <c r="O56">
         <v>0.037288182551364103</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>0.89572136710634498</v>
-      </c>
-      <c r="P56">
-        <v>-1.56082526810821</v>
       </c>
       <c r="Q56">
         <v>0.10968110644247901</v>
@@ -10562,13 +10538,13 @@
         <v>-0.35943789247728997</v>
       </c>
       <c r="N57">
+        <v>0.83747759449494985</v>
+      </c>
+      <c r="O57">
         <v>0.038145525597102201</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>0.90572217425038803</v>
-      </c>
-      <c r="P57">
-        <v>-1.56081372501006</v>
       </c>
       <c r="Q57">
         <v>0.114898950472944</v>
@@ -10744,13 +10720,13 @@
         <v>-0.35409224346068607</v>
       </c>
       <c r="N58">
+        <v>0.84490487491845589</v>
+      </c>
+      <c r="O58">
         <v>0.039004419841553298</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.91625816882226896</v>
-      </c>
-      <c r="P58">
-        <v>-1.56045528729915</v>
       </c>
       <c r="Q58">
         <v>0.120059360074027</v>
@@ -10926,13 +10902,13 @@
         <v>-0.348749798386503</v>
       </c>
       <c r="N59">
+        <v>0.85239010758318412</v>
+      </c>
+      <c r="O59">
         <v>0.039864856577702203</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>0.92729521710965412</v>
-      </c>
-      <c r="P59">
-        <v>-1.55977004399279</v>
       </c>
       <c r="Q59">
         <v>0.12516057149745802</v>
@@ -11108,13 +11084,13 @@
         <v>-0.34341629541740998</v>
       </c>
       <c r="N60">
+        <v>0.85992003334888589</v>
+      </c>
+      <c r="O60">
         <v>0.040726827098534098</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>0.93879918540020602</v>
-      </c>
-      <c r="P60">
-        <v>-1.5587780841082501</v>
       </c>
       <c r="Q60">
         <v>0.13020082099496799</v>
@@ -11290,13 +11266,13 @@
         <v>-0.33809747271608004</v>
       </c>
       <c r="N61">
+        <v>0.86748139307531591</v>
+      </c>
+      <c r="O61">
         <v>0.041590322697033798</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>0.95073593998158989</v>
-      </c>
-      <c r="P61">
-        <v>-1.5574994966628501</v>
       </c>
       <c r="Q61">
         <v>0.135178344818286</v>
@@ -11472,13 +11448,13 @@
         <v>-0.33279906844518198</v>
       </c>
       <c r="N62">
+        <v>0.87506092762222587</v>
+      </c>
+      <c r="O62">
         <v>0.042455334666186402</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>0.96307134714146803</v>
-      </c>
-      <c r="P62">
-        <v>-1.5559543706738601</v>
       </c>
       <c r="Q62">
         <v>0.140091379219144</v>
@@ -11654,13 +11630,13 @@
         <v>-0.32752682076738798</v>
       </c>
       <c r="N63">
+        <v>0.88264537784936714</v>
+      </c>
+      <c r="O63">
         <v>0.043321854298976899</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>0.97577127316750289</v>
-      </c>
-      <c r="P63">
-        <v>-1.5541627951586001</v>
       </c>
       <c r="Q63">
         <v>0.14493816044927099</v>
@@ -11836,13 +11812,13 @@
         <v>-0.32228646784536602</v>
       </c>
       <c r="N64">
+        <v>0.89022148461649298</v>
+      </c>
+      <c r="O64">
         <v>0.044189872888390297</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>0.98880158434736298</v>
-      </c>
-      <c r="P64">
-        <v>-1.5521448591343501</v>
       </c>
       <c r="Q64">
         <v>0.14971692476039902</v>
@@ -12018,13 +11994,13 @@
         <v>-0.317083747841789</v>
       </c>
       <c r="N65">
+        <v>0.89777598878335296</v>
+      </c>
+      <c r="O65">
         <v>0.045059381727411398</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>1.0021281469687</v>
-      </c>
-      <c r="P65">
-        <v>-1.5499206516184101</v>
       </c>
       <c r="Q65">
         <v>0.15442590840425699</v>
@@ -12200,13 +12176,13 @@
         <v>-0.31192439891932694</v>
       </c>
       <c r="N66">
+        <v>0.90529563120970413</v>
+      </c>
+      <c r="O66">
         <v>0.045930372109025397</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>1.0157168273191999</v>
-      </c>
-      <c r="P66">
-        <v>-1.54751026162808</v>
       </c>
       <c r="Q66">
         <v>0.15906334763257698</v>
@@ -12382,13 +12358,13 @@
         <v>-0.30681415924065003</v>
       </c>
       <c r="N67">
+        <v>0.91276715275529396</v>
+      </c>
+      <c r="O67">
         <v>0.0468028353262172</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>1.0295334916865</v>
-      </c>
-      <c r="P67">
-        <v>-1.5449337781806398</v>
       </c>
       <c r="Q67">
         <v>0.16362747869708802</v>
@@ -12564,13 +12540,13 @@
         <v>-0.30175876696842896</v>
       </c>
       <c r="N68">
+        <v>0.92017729427987704</v>
+      </c>
+      <c r="O68">
         <v>0.047676762671971802</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>1.0435440063582799</v>
-      </c>
-      <c r="P68">
-        <v>-1.5422112902934</v>
       </c>
       <c r="Q68">
         <v>0.16811653784952099</v>
@@ -12746,13 +12722,13 @@
         <v>-0.29676396026533503</v>
       </c>
       <c r="N69">
+        <v>0.92751279664320585</v>
+      </c>
+      <c r="O69">
         <v>0.048552145439274302</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>1.0577142376222</v>
-      </c>
-      <c r="P69">
-        <v>-1.53936288698365</v>
       </c>
       <c r="Q69">
         <v>0.17252876134160702</v>
@@ -12928,13 +12904,13 @@
         <v>-0.29183547729403903</v>
       </c>
       <c r="N70">
+        <v>0.93476040070503208</v>
+      </c>
+      <c r="O70">
         <v>0.049428974921109398</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>1.0720100517659301</v>
-      </c>
-      <c r="P70">
-        <v>-1.5364086572686899</v>
       </c>
       <c r="Q70">
         <v>0.17686238542507499</v>
@@ -13110,13 +13086,13 @@
         <v>-0.28697905621721004</v>
       </c>
       <c r="N71">
+        <v>0.94190684732510899</v>
+      </c>
+      <c r="O71">
         <v>0.050307242410462402</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>1.08639731507712</v>
-      </c>
-      <c r="P71">
-        <v>-1.5333686901658099</v>
       </c>
       <c r="Q71">
         <v>0.181115646351657</v>
@@ -13292,13 +13268,13 @@
         <v>-0.28220043519752003</v>
       </c>
       <c r="N72">
+        <v>0.94893887736318705</v>
+      </c>
+      <c r="O72">
         <v>0.051186939200318103</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>1.1008418938434399</v>
-      </c>
-      <c r="P72">
-        <v>-1.53026307469231</v>
       </c>
       <c r="Q72">
         <v>0.18528678037308302</v>
@@ -13474,13 +13450,13 @@
         <v>-0.27750535239763802</v>
       </c>
       <c r="N73">
+        <v>0.95584323167901908</v>
+      </c>
+      <c r="O73">
         <v>0.052068056583661503</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>1.11530965435256</v>
-      </c>
-      <c r="P73">
-        <v>-1.52711189986548</v>
       </c>
       <c r="Q73">
         <v>0.189374023741083</v>
@@ -13656,13 +13632,13 @@
         <v>-0.27289954598023702</v>
       </c>
       <c r="N74">
+        <v>0.9626066511323591</v>
+      </c>
+      <c r="O74">
         <v>0.0529505858534777</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>1.1297664628921298</v>
-      </c>
-      <c r="P74">
-        <v>-1.5239352547026201</v>
       </c>
       <c r="Q74">
         <v>0.19337561270738698</v>
@@ -13838,13 +13814,13 @@
         <v>-0.26838875410798602</v>
       </c>
       <c r="N75">
+        <v>0.96921587658295705</v>
+      </c>
+      <c r="O75">
         <v>0.053834518302751599</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1.1441781857498301</v>
-      </c>
-      <c r="P75">
-        <v>-1.5207532282210201</v>
       </c>
       <c r="Q75">
         <v>0.19728978352372697</v>
@@ -14020,13 +13996,13 @@
         <v>-0.26397871494355601</v>
       </c>
       <c r="N76">
+        <v>0.97565764889056594</v>
+      </c>
+      <c r="O76">
         <v>0.054719845224468197</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>1.1585106892133101</v>
-      </c>
-      <c r="P76">
-        <v>-1.51758590943798</v>
       </c>
       <c r="Q76">
         <v>0.20111477244183201</v>
@@ -14202,13 +14178,13 @@
         <v>-0.25967516664961698</v>
       </c>
       <c r="N77">
+        <v>0.98191870891493904</v>
+      </c>
+      <c r="O77">
         <v>0.055606557911612502</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>1.1727298395702399</v>
-      </c>
-      <c r="P77">
-        <v>-1.5144533873707899</v>
       </c>
       <c r="Q77">
         <v>0.204848815713434</v>
@@ -14384,13 +14360,13 @@
         <v>-0.255483847388841</v>
       </c>
       <c r="N78">
+        <v>0.98798579751582805</v>
+      </c>
+      <c r="O78">
         <v>0.056494647657169501</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>1.1868015031082799</v>
-      </c>
-      <c r="P78">
-        <v>-1.51137575103675</v>
       </c>
       <c r="Q78">
         <v>0.20849014959026199</v>
@@ -14566,13 +14542,13 @@
         <v>-0.25141049532389803</v>
       </c>
       <c r="N79">
+        <v>0.99384565555298399</v>
+      </c>
+      <c r="O79">
         <v>0.057384105754124101</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>1.2006915461151</v>
-      </c>
-      <c r="P79">
-        <v>-1.50837308945316</v>
       </c>
       <c r="Q79">
         <v>0.21203701032404601</v>
@@ -14748,13 +14724,13 @@
         <v>-0.24746084861745801</v>
       </c>
       <c r="N80">
+        <v>0.99948502388616089</v>
+      </c>
+      <c r="O80">
         <v>0.0582749234954614</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>1.2143658348783601</v>
-      </c>
-      <c r="P80">
-        <v>-1.5054654916373</v>
       </c>
       <c r="Q80">
         <v>0.21548763416651801</v>
@@ -14930,13 +14906,13 @@
         <v>-0.24364064543219197</v>
       </c>
       <c r="N81">
+        <v>1.0048906433751101</v>
+      </c>
+      <c r="O81">
         <v>0.059167092174166297</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>1.22779023568572</v>
-      </c>
-      <c r="P81">
-        <v>-1.5026730466064799</v>
       </c>
       <c r="Q81">
         <v>0.21884025736940801</v>
@@ -15112,13 +15088,13 @@
         <v>-0.23995562393077102</v>
       </c>
       <c r="N82">
+        <v>1.0100492548795801</v>
+      </c>
+      <c r="O82">
         <v>0.060060603083223897</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>1.24093061482485</v>
-      </c>
-      <c r="P82">
-        <v>-1.500015843378</v>
       </c>
       <c r="Q82">
         <v>0.22209311618444699</v>
@@ -15294,13 +15270,13 @@
         <v>-0.23641059364048803</v>
       </c>
       <c r="N83">
+        <v>1.0149496713758002</v>
+      </c>
+      <c r="O83">
         <v>0.060955447180369597</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>1.2537577762829399</v>
-      </c>
-      <c r="P83">
-        <v>-1.4975111009201798</v>
       </c>
       <c r="Q83">
         <v>0.22524479792411201</v>
@@ -15476,13 +15452,13 @@
         <v>-0.23300577919158499</v>
       </c>
       <c r="N84">
+        <v>1.0195909363792499</v>
+      </c>
+      <c r="O84">
         <v>0.061851613768131197</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>1.2662669026618101</v>
-      </c>
-      <c r="P84">
-        <v>-1.4951618680768202</v>
       </c>
       <c r="Q84">
         <v>0.22829562317254998</v>
@@ -15658,13 +15634,13 @@
         <v>-0.22973999270637199</v>
       </c>
       <c r="N85">
+        <v>1.0239752452139799</v>
+      </c>
+      <c r="O85">
         <v>0.062749091639102694</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>1.2784606870888702</v>
-      </c>
-      <c r="P85">
-        <v>-1.49296682818181</v>
       </c>
       <c r="Q85">
         <v>0.23124644649754003</v>
@@ -15840,13 +15816,13 @@
         <v>-0.22661204591165501</v>
       </c>
       <c r="N86">
+        <v>1.02810479408658</v>
+      </c>
+      <c r="O86">
         <v>0.063647869585735303</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>1.29034182479448</v>
-      </c>
-      <c r="P86">
-        <v>-1.4909246633466899</v>
       </c>
       <c r="Q86">
         <v>0.234098122616377</v>
@@ -16022,13 +15998,13 @@
         <v>-0.22362075053423899</v>
       </c>
       <c r="N87">
+        <v>1.0319817792035999</v>
+      </c>
+      <c r="O87">
         <v>0.064547936400480094</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>1.301913011009</v>
-      </c>
-      <c r="P87">
-        <v>-1.4890340556830299</v>
       </c>
       <c r="Q87">
         <v>0.23685150624635398</v>
@@ -16204,13 +16180,13 @@
         <v>-0.22076491830093103</v>
       </c>
       <c r="N88">
+        <v>1.0356083967716201</v>
+      </c>
+      <c r="O88">
         <v>0.065449280875788496</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>1.31317694096277</v>
-      </c>
-      <c r="P88">
-        <v>-1.4872936873023799</v>
       </c>
       <c r="Q88">
         <v>0.23950745210476701</v>
@@ -16386,13 +16362,13 @@
         <v>-0.21804336093853696</v>
       </c>
       <c r="N89">
+        <v>1.03898684299721</v>
+      </c>
+      <c r="O89">
         <v>0.066351891804111496</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>1.3241363098861698</v>
-      </c>
-      <c r="P89">
-        <v>-1.4857022403162901</v>
       </c>
       <c r="Q89">
         <v>0.24206681490890897</v>
@@ -16568,13 +16544,13 @@
         <v>-0.21545489017386302</v>
       </c>
       <c r="N90">
+        <v>1.04211931408694</v>
+      </c>
+      <c r="O90">
         <v>0.067255757977900399</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>1.33479381300954</v>
-      </c>
-      <c r="P90">
-        <v>-1.4842583968363101</v>
       </c>
       <c r="Q90">
         <v>0.24453044937607601</v>
@@ -16750,13 +16726,13 @@
         <v>-0.212998317733716</v>
       </c>
       <c r="N91">
+        <v>1.0450080062473801</v>
+      </c>
+      <c r="O91">
         <v>0.068160868189606399</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>1.3451521455632498</v>
-      </c>
-      <c r="P91">
-        <v>-1.4829608389739901</v>
       </c>
       <c r="Q91">
         <v>0.24689921022356001</v>
@@ -16932,13 +16908,13 @@
         <v>-0.21067245534490001</v>
       </c>
       <c r="N92">
+        <v>1.0476551156850999</v>
+      </c>
+      <c r="O92">
         <v>0.069067211231680595</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>1.3552140027776498</v>
-      </c>
-      <c r="P92">
-        <v>-1.4818082488408899</v>
       </c>
       <c r="Q92">
         <v>0.24917395216865801</v>
@@ -17114,13 +17090,13 @@
         <v>-0.20847611473422201</v>
       </c>
       <c r="N93">
+        <v>1.0500628386066702</v>
+      </c>
+      <c r="O93">
         <v>0.069974775896574304</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>1.3649820798831001</v>
-      </c>
-      <c r="P93">
-        <v>-1.4807993085485602</v>
       </c>
       <c r="Q93">
         <v>0.251355529928663</v>
@@ -17296,13 +17272,13 @@
         <v>-0.20640810762848899</v>
       </c>
       <c r="N94">
+        <v>1.05223337121866</v>
+      </c>
+      <c r="O94">
         <v>0.070883550976738693</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>1.3744590721099499</v>
-      </c>
-      <c r="P94">
-        <v>-1.4799327002085501</v>
       </c>
       <c r="Q94">
         <v>0.25344479822087002</v>
@@ -17478,13 +17454,13 @@
         <v>-0.20446724575450603</v>
       </c>
       <c r="N95">
+        <v>1.0541689097276401</v>
+      </c>
+      <c r="O95">
         <v>0.071793525264624902</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>1.3836476746885702</v>
-      </c>
-      <c r="P95">
-        <v>-1.4792071059324097</v>
       </c>
       <c r="Q95">
         <v>0.25544261176257299</v>
@@ -17660,13 +17636,13 @@
         <v>-0.20265234083907899</v>
       </c>
       <c r="N96">
+        <v>1.0558716503401802</v>
+      </c>
+      <c r="O96">
         <v>0.072704687552684194</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>1.3925505828493101</v>
-      </c>
-      <c r="P96">
-        <v>-1.4786212078316998</v>
       </c>
       <c r="Q96">
         <v>0.25734982527106698</v>
@@ -17842,13 +17818,13 @@
         <v>-0.20096220460901504</v>
       </c>
       <c r="N97">
+        <v>1.0573437892628599</v>
+      </c>
+      <c r="O97">
         <v>0.073617026633367805</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>1.4011704918225301</v>
-      </c>
-      <c r="P97">
-        <v>-1.4781736880179799</v>
       </c>
       <c r="Q97">
         <v>0.25916729346364498</v>
@@ -18024,13 +18000,13 @@
         <v>-0.19939564879111998</v>
       </c>
       <c r="N98">
+        <v>1.0585875227022299</v>
+      </c>
+      <c r="O98">
         <v>0.074530531299126804</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>1.4095100968385801</v>
-      </c>
-      <c r="P98">
-        <v>-1.4778632286027802</v>
       </c>
       <c r="Q98">
         <v>0.26089587105760298</v>
@@ -18206,13 +18182,13 @@
         <v>-0.19795148511219895</v>
       </c>
       <c r="N99">
+        <v>1.0596050468648701</v>
+      </c>
+      <c r="O99">
         <v>0.075445190342412496</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>1.4175720931278299</v>
-      </c>
-      <c r="P99">
-        <v>-1.4776885116976699</v>
       </c>
       <c r="Q99">
         <v>0.26253641277023604</v>
@@ -18388,13 +18364,13 @@
         <v>-0.196628525299059</v>
       </c>
       <c r="N100">
+        <v>1.06039855795736</v>
+      </c>
+      <c r="O100">
         <v>0.076360992555675994</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>1.4253591759206299</v>
-      </c>
-      <c r="P100">
-        <v>-1.4776482194142</v>
       </c>
       <c r="Q100">
         <v>0.26408977331883604</v>
@@ -18570,13 +18546,13 @@
         <v>-0.195425581078505</v>
       </c>
       <c r="N101">
+        <v>1.0609702521862499</v>
+      </c>
+      <c r="O101">
         <v>0.077277926731368601</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>1.4328740404473301</v>
-      </c>
-      <c r="P101">
-        <v>-1.4777410338639099</v>
       </c>
       <c r="Q101">
         <v>0.26555680742069898</v>
@@ -18752,13 +18728,13 @@
         <v>-0.19434146417734399</v>
       </c>
       <c r="N102">
+        <v>1.0613223257581299</v>
+      </c>
+      <c r="O102">
         <v>0.078195981661941402</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>1.4401193819383</v>
-      </c>
-      <c r="P102">
-        <v>-1.47796563715837</v>
       </c>
       <c r="Q102">
         <v>0.26693836979311997</v>
@@ -18934,13 +18910,13 @@
         <v>-0.19337498632238198</v>
       </c>
       <c r="N103">
+        <v>1.0614569748795599</v>
+      </c>
+      <c r="O103">
         <v>0.079115146139845702</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>1.4470978956239</v>
-      </c>
-      <c r="P103">
-        <v>-1.4783207114091299</v>
       </c>
       <c r="Q103">
         <v>0.268235315153392</v>
@@ -19116,13 +19092,13 @@
         <v>-0.19252495924042601</v>
       </c>
       <c r="N104">
+        <v>1.0613763957571101</v>
+      </c>
+      <c r="O104">
         <v>0.080035408957532597</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>1.4538122767344699</v>
-      </c>
-      <c r="P104">
-        <v>-1.47880493872773</v>
       </c>
       <c r="Q104">
         <v>0.26944849821881001</v>
@@ -19298,13 +19274,13 @@
         <v>-0.19179019465828001</v>
       </c>
       <c r="N105">
+        <v>1.0610827845973601</v>
+      </c>
+      <c r="O105">
         <v>0.080956758907453394</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>1.4602652205003799</v>
-      </c>
-      <c r="P105">
-        <v>-1.4794170012257299</v>
       </c>
       <c r="Q105">
         <v>0.270578773706668</v>
@@ -19480,13 +19456,13 @@
         <v>-0.19116950430275101</v>
       </c>
       <c r="N106">
+        <v>1.06057833760686</v>
+      </c>
+      <c r="O106">
         <v>0.081879184782059106</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>1.46645942215198</v>
-      </c>
-      <c r="P106">
-        <v>-1.48015558101468</v>
       </c>
       <c r="Q106">
         <v>0.27162699633426202</v>
@@ -19662,13 +19638,13 @@
         <v>-0.19066169990064602</v>
       </c>
       <c r="N107">
+        <v>1.0598652509922</v>
+      </c>
+      <c r="O107">
         <v>0.082802675373801204</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>1.47239757691964</v>
-      </c>
-      <c r="P107">
-        <v>-1.4810193602061399</v>
       </c>
       <c r="Q107">
         <v>0.27259402081888501</v>
@@ -19844,13 +19820,13 @@
         <v>-0.19026559317876998</v>
       </c>
       <c r="N108">
+        <v>1.05894572095995</v>
+      </c>
+      <c r="O108">
         <v>0.083727219475130593</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>1.47808238003371</v>
-      </c>
-      <c r="P108">
-        <v>-1.4820070209116598</v>
       </c>
       <c r="Q108">
         <v>0.27348070187783102</v>
@@ -20026,13 +20002,13 @@
         <v>-0.18997999586392897</v>
       </c>
       <c r="N109">
+        <v>1.0578219437166601</v>
+      </c>
+      <c r="O109">
         <v>0.084652805878498702</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>1.48351652672454</v>
-      </c>
-      <c r="P109">
-        <v>-1.4831172452427901</v>
       </c>
       <c r="Q109">
         <v>0.27428789422839606</v>
@@ -20208,13 +20184,13 @@
         <v>-0.18980371968293</v>
       </c>
       <c r="N110">
+        <v>1.0564961154689201</v>
+      </c>
+      <c r="O110">
         <v>0.0855794233763566</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>1.4887027122224901</v>
-      </c>
-      <c r="P110">
-        <v>-1.4843487153110801</v>
       </c>
       <c r="Q110">
         <v>0.27501645258787299</v>
@@ -20390,13 +20366,13 @@
         <v>-0.18973557636257801</v>
       </c>
       <c r="N111">
+        <v>1.05497043242329</v>
+      </c>
+      <c r="O111">
         <v>0.086507060761155496</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>1.49364363175793</v>
-      </c>
-      <c r="P111">
-        <v>-1.48570011322809</v>
       </c>
       <c r="Q111">
         <v>0.275667231673558</v>
@@ -20572,13 +20548,13 @@
         <v>-0.189774377629679</v>
       </c>
       <c r="N112">
+        <v>1.05324709078634</v>
+      </c>
+      <c r="O112">
         <v>0.087435706825346696</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>1.4983419805612099</v>
-      </c>
-      <c r="P112">
-        <v>-1.4871701211053703</v>
       </c>
       <c r="Q112">
         <v>0.27624108620274396</v>
@@ -20754,13 +20730,13 @@
         <v>-0.189918935211041</v>
       </c>
       <c r="N113">
+        <v>1.0513282867646501</v>
+      </c>
+      <c r="O113">
         <v>0.088365350361381295</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>1.5028004538626798</v>
-      </c>
-      <c r="P113">
-        <v>-1.4887574210544601</v>
       </c>
       <c r="Q113">
         <v>0.27673887089272498</v>
@@ -20936,13 +20912,13 @@
         <v>-0.19016806083346802</v>
       </c>
       <c r="N114">
+        <v>1.04921621656479</v>
+      </c>
+      <c r="O114">
         <v>0.089295980161710503</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>1.5070217468927101</v>
-      </c>
-      <c r="P114">
-        <v>-1.4904606951869299</v>
       </c>
       <c r="Q114">
         <v>0.27716144046079699</v>
@@ -21118,13 +21094,13 @@
         <v>-0.19052056622376601</v>
       </c>
       <c r="N115">
+        <v>1.0469130763933101</v>
+      </c>
+      <c r="O115">
         <v>0.0902275850187855</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>1.5110085548816399</v>
-      </c>
-      <c r="P115">
-        <v>-1.4922786256143301</v>
       </c>
       <c r="Q115">
         <v>0.27750964962425395</v>
@@ -21300,13 +21276,13 @@
         <v>-0.19097526310874302</v>
       </c>
       <c r="N116">
+        <v>1.0444210624568</v>
+      </c>
+      <c r="O116">
         <v>0.091160153725057494</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>1.5147635730598501</v>
-      </c>
-      <c r="P116">
-        <v>-1.4942098944481998</v>
       </c>
       <c r="Q116">
         <v>0.27778435310039001</v>
@@ -21482,13 +21458,13 @@
         <v>-0.19153096321520299</v>
       </c>
       <c r="N117">
+        <v>1.0417423709618301</v>
+      </c>
+      <c r="O117">
         <v>0.092093675072977693</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>1.5182894966576799</v>
-      </c>
-      <c r="P117">
-        <v>-1.4962531838001103</v>
       </c>
       <c r="Q117">
         <v>0.27798640560650001</v>
@@ -21664,13 +21640,13 @@
         <v>-0.192186478269954</v>
       </c>
       <c r="N118">
+        <v>1.0388791981149599</v>
+      </c>
+      <c r="O118">
         <v>0.093028137854997403</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>1.5215890209054899</v>
-      </c>
-      <c r="P118">
-        <v>-1.4984071757816002</v>
       </c>
       <c r="Q118">
         <v>0.27811666185987799</v>
@@ -21846,13 +21822,13 @@
         <v>-0.1929406199998</v>
       </c>
       <c r="N119">
+        <v>1.03583374012276</v>
+      </c>
+      <c r="O119">
         <v>0.093963530863567596</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>1.5246648410336399</v>
-      </c>
-      <c r="P119">
-        <v>-1.5006705525042201</v>
       </c>
       <c r="Q119">
         <v>0.27817597657781801</v>
@@ -22028,13 +22004,13 @@
         <v>-0.19379220013154899</v>
       </c>
       <c r="N120">
+        <v>1.0326081931918101</v>
+      </c>
+      <c r="O120">
         <v>0.094899842891139605</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>1.5275196522724899</v>
-      </c>
-      <c r="P120">
-        <v>-1.50304199607954</v>
       </c>
       <c r="Q120">
         <v>0.278165204477615</v>
@@ -22210,13 +22186,13 @@
         <v>-0.19474003039200599</v>
       </c>
       <c r="N121">
+        <v>1.0292047535286801</v>
+      </c>
+      <c r="O121">
         <v>0.095837062730164693</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>1.5301561498523999</v>
-      </c>
-      <c r="P121">
-        <v>-1.5055201886191001</v>
       </c>
       <c r="Q121">
         <v>0.27808520027656397</v>
@@ -22392,13 +22368,13 @@
         <v>-0.19578292250797699</v>
       </c>
       <c r="N122">
+        <v>1.0256256173399201</v>
+      </c>
+      <c r="O122">
         <v>0.096775179173093903</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>1.5325770290037199</v>
-      </c>
-      <c r="P122">
-        <v>-1.5081038122344499</v>
       </c>
       <c r="Q122">
         <v>0.27793681869195802</v>
@@ -22574,13 +22550,13 @@
         <v>-0.19691968820626798</v>
       </c>
       <c r="N123">
+        <v>1.0218729808321301</v>
+      </c>
+      <c r="O123">
         <v>0.097714181012378595</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>1.5347849849568103</v>
-      </c>
-      <c r="P123">
-        <v>-1.51079154903714</v>
       </c>
       <c r="Q123">
         <v>0.27772091444109198</v>
@@ -22756,13 +22732,13 @@
         <v>-0.19814913921368599</v>
       </c>
       <c r="N124">
+        <v>1.0179490402118598</v>
+      </c>
+      <c r="O124">
         <v>0.098654057040469798</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>1.53678271294202</v>
-      </c>
-      <c r="P124">
-        <v>-1.5135820811387399</v>
       </c>
       <c r="Q124">
         <v>0.27743834224126096</v>
@@ -22938,13 +22914,13 @@
         <v>-0.19947008725703602</v>
       </c>
       <c r="N125">
+        <v>1.01385599168569</v>
+      </c>
+      <c r="O125">
         <v>0.099594796049818801</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>1.5385729081897199</v>
-      </c>
-      <c r="P125">
-        <v>-1.5164740906507901</v>
       </c>
       <c r="Q125">
         <v>0.27708995680975895</v>
@@ -23120,13 +23096,13 @@
         <v>-0.20088134406312499</v>
       </c>
       <c r="N126">
+        <v>1.00959603146018</v>
+      </c>
+      <c r="O126">
         <v>0.10053638683287701</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>1.54015826593025</v>
-      </c>
-      <c r="P126">
-        <v>-1.5194662596848401</v>
       </c>
       <c r="Q126">
         <v>0.27667661286388101</v>
@@ -23302,13 +23278,13 @@
         <v>-0.20238172135875895</v>
       </c>
       <c r="N127">
+        <v>1.00517135574191</v>
+      </c>
+      <c r="O127">
         <v>0.101478818182095</v>
       </c>
-      <c r="O127">
+      <c r="P127">
         <v>1.5415414813939898</v>
-      </c>
-      <c r="P127">
-        <v>-1.5225572703524499</v>
       </c>
       <c r="Q127">
         <v>0.27619916512091996</v>
@@ -23484,13 +23460,13 @@
         <v>-0.20397003087074303</v>
       </c>
       <c r="N128">
+        <v>1.0005841607374499</v>
+      </c>
+      <c r="O128">
         <v>0.10242207888992499</v>
       </c>
-      <c r="O128">
+      <c r="P128">
         <v>1.54272524981129</v>
-      </c>
-      <c r="P128">
-        <v>-1.52574580476517</v>
       </c>
       <c r="Q128">
         <v>0.27565846829817198</v>
@@ -23666,13 +23642,13 @@
         <v>-0.20564508432588399</v>
       </c>
       <c r="N129">
+        <v>0.99583664265335803</v>
+      </c>
+      <c r="O129">
         <v>0.10336615774881698</v>
       </c>
-      <c r="O129">
+      <c r="P129">
         <v>1.54371226641249</v>
-      </c>
-      <c r="P129">
-        <v>-1.52903054503455</v>
       </c>
       <c r="Q129">
         <v>0.27505537711293099</v>
@@ -23848,13 +23824,13 @@
         <v>-0.207405693450988</v>
       </c>
       <c r="N130">
+        <v>0.99093099769621695</v>
+      </c>
+      <c r="O130">
         <v>0.104311043551223</v>
       </c>
-      <c r="O130">
+      <c r="P130">
         <v>1.5445052264279802</v>
-      </c>
-      <c r="P130">
-        <v>-1.53241017327214</v>
       </c>
       <c r="Q130">
         <v>0.27439074628248999</v>
@@ -24030,13 +24006,13 @@
         <v>-0.20925066997286104</v>
       </c>
       <c r="N131">
+        <v>0.9858694220725942</v>
+      </c>
+      <c r="O131">
         <v>0.10525672508959401</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>1.5451068250880802</v>
-      </c>
-      <c r="P131">
-        <v>-1.5358833715895102</v>
       </c>
       <c r="Q131">
         <v>0.27366543052414605</v>
@@ -24212,13 +24188,13 @@
         <v>-0.211178825618308</v>
       </c>
       <c r="N132">
+        <v>0.98065411198905705</v>
+      </c>
+      <c r="O132">
         <v>0.10620319115638099</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>1.5455197576231798</v>
-      </c>
-      <c r="P132">
-        <v>-1.5394488220981899</v>
       </c>
       <c r="Q132">
         <v>0.27288028455519103</v>
@@ -24394,13 +24370,13 @@
         <v>-0.21318897211413701</v>
       </c>
       <c r="N133">
+        <v>0.97528726365217799</v>
+      </c>
+      <c r="O133">
         <v>0.107150430544035</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>1.5457467192636103</v>
-      </c>
-      <c r="P133">
-        <v>-1.54310520690974</v>
       </c>
       <c r="Q133">
         <v>0.272036163092921</v>
@@ -24576,13 +24552,13 @@
         <v>-0.215279921187153</v>
       </c>
       <c r="N134">
+        <v>0.96977107326852496</v>
+      </c>
+      <c r="O134">
         <v>0.10809843204500802</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>1.5457904052397502</v>
-      </c>
-      <c r="P134">
-        <v>-1.54685120813572</v>
       </c>
       <c r="Q134">
         <v>0.27113392085462901</v>
@@ -24758,13 +24734,13 @@
         <v>-0.21745048456416197</v>
       </c>
       <c r="N135">
+        <v>0.9641077370446719</v>
+      </c>
+      <c r="O135">
         <v>0.10904718445175099</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>1.54565351078194</v>
-      </c>
-      <c r="P135">
-        <v>-1.55068550788768</v>
       </c>
       <c r="Q135">
         <v>0.27017441255761104</v>
@@ -24940,13 +24916,13 @@
         <v>-0.21969947397197001</v>
       </c>
       <c r="N136">
+        <v>0.95829945118718507</v>
+      </c>
+      <c r="O136">
         <v>0.109996676556715</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>1.54533873112055</v>
-      </c>
-      <c r="P136">
-        <v>-1.5546067882771701</v>
       </c>
       <c r="Q136">
         <v>0.269158492919161</v>
@@ -25122,13 +25098,13 @@
         <v>-0.22202570113738399</v>
       </c>
       <c r="N137">
+        <v>0.95234841190263708</v>
+      </c>
+      <c r="O137">
         <v>0.110946897152351</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>1.5448487614859299</v>
-      </c>
-      <c r="P137">
-        <v>-1.55861373141574</v>
       </c>
       <c r="Q137">
         <v>0.26808701665657303</v>
@@ -25304,13 +25280,13 @@
         <v>-0.22442797778720897</v>
       </c>
       <c r="N138">
+        <v>0.94625681539759587</v>
+      </c>
+      <c r="O138">
         <v>0.11189783503110999</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>1.5441862971084399</v>
-      </c>
-      <c r="P138">
-        <v>-1.5627050194149399</v>
       </c>
       <c r="Q138">
         <v>0.26696083848714103</v>
@@ -25486,13 +25462,13 @@
         <v>-0.226905115648251</v>
       </c>
       <c r="N139">
+        <v>0.94002685787863405</v>
+      </c>
+      <c r="O139">
         <v>0.11284947898544401</v>
       </c>
-      <c r="O139">
+      <c r="P139">
         <v>1.5433540332184399</v>
-      </c>
-      <c r="P139">
-        <v>-1.5668793343863401</v>
       </c>
       <c r="Q139">
         <v>0.26578081312816104</v>
@@ -25668,13 +25644,13 @@
         <v>-0.22945592644731802</v>
       </c>
       <c r="N140">
+        <v>0.93366073555232199</v>
+      </c>
+      <c r="O140">
         <v>0.113801817807803</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>1.54235466504628</v>
-      </c>
-      <c r="P140">
-        <v>-1.57113535844147</v>
       </c>
       <c r="Q140">
         <v>0.26454779529692601</v>
@@ -25850,13 +25826,13 @@
         <v>-0.23207922191121302</v>
       </c>
       <c r="N141">
+        <v>0.92716064462522696</v>
+      </c>
+      <c r="O141">
         <v>0.11475484029064</v>
       </c>
-      <c r="O141">
+      <c r="P141">
         <v>1.5411908878223299</v>
-      </c>
-      <c r="P141">
-        <v>-1.5754717736918997</v>
       </c>
       <c r="Q141">
         <v>0.26326263971073099</v>
@@ -26032,13 +26008,13 @@
         <v>-0.234773813766745</v>
       </c>
       <c r="N142">
+        <v>0.92052878130392302</v>
+      </c>
+      <c r="O142">
         <v>0.11570853522640402</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>1.5398653967769298</v>
-      </c>
-      <c r="P142">
-        <v>-1.57988726224917</v>
       </c>
       <c r="Q142">
         <v>0.26192620108686998</v>
@@ -26214,13 +26190,13 @@
         <v>-0.23753851374071802</v>
       </c>
       <c r="N143">
+        <v>0.91376734179497698</v>
+      </c>
+      <c r="O143">
         <v>0.116662891407548</v>
       </c>
-      <c r="O143">
+      <c r="P143">
         <v>1.5383808871404498</v>
-      </c>
-      <c r="P143">
-        <v>-1.5843805062248399</v>
       </c>
       <c r="Q143">
         <v>0.26053933414263802</v>
@@ -26396,13 +26372,13 @@
         <v>-0.240372133559939</v>
       </c>
       <c r="N144">
+        <v>0.90687852230495913</v>
+      </c>
+      <c r="O144">
         <v>0.117617897626523</v>
       </c>
-      <c r="O144">
+      <c r="P144">
         <v>1.5367400541432399</v>
-      </c>
-      <c r="P144">
-        <v>-1.5889501877304599</v>
       </c>
       <c r="Q144">
         <v>0.25910289359532895</v>
@@ -26578,13 +26554,13 @@
         <v>-0.24327348495121398</v>
       </c>
       <c r="N145">
+        <v>0.89986451904044196</v>
+      </c>
+      <c r="O145">
         <v>0.11857354267577902</v>
       </c>
-      <c r="O145">
+      <c r="P145">
         <v>1.5349455930156699</v>
-      </c>
-      <c r="P145">
-        <v>-1.5935949888775802</v>
       </c>
       <c r="Q145">
         <v>0.25761773416223804</v>
@@ -26760,13 +26736,13 @@
         <v>-0.24624137964134901</v>
       </c>
       <c r="N146">
+        <v>0.89272752820799495</v>
+      </c>
+      <c r="O146">
         <v>0.11952981534776901</v>
       </c>
-      <c r="O146">
+      <c r="P146">
         <v>1.5330001989880799</v>
-      </c>
-      <c r="P146">
-        <v>-1.59831359177776</v>
       </c>
       <c r="Q146">
         <v>0.25608471056065896</v>
@@ -26942,13 +26918,13 @@
         <v>-0.24927462935715</v>
       </c>
       <c r="N147">
+        <v>0.88546974601418793</v>
+      </c>
+      <c r="O147">
         <v>0.12048670443494199</v>
       </c>
-      <c r="O147">
+      <c r="P147">
         <v>1.5309065672908402</v>
-      </c>
-      <c r="P147">
-        <v>-1.60310467854255</v>
       </c>
       <c r="Q147">
         <v>0.25450467750788602</v>
@@ -27124,13 +27100,13 @@
         <v>-0.252372045825423</v>
       </c>
       <c r="N148">
+        <v>0.87809336866559085</v>
+      </c>
+      <c r="O148">
         <v>0.121444198729751</v>
       </c>
-      <c r="O148">
+      <c r="P148">
         <v>1.5286673931543002</v>
-      </c>
-      <c r="P148">
-        <v>-1.6079669312834999</v>
       </c>
       <c r="Q148">
         <v>0.25287848972121396</v>
@@ -27306,13 +27282,13 @@
         <v>-0.25553244077297499</v>
       </c>
       <c r="N149">
+        <v>0.87060059236877296</v>
+      </c>
+      <c r="O149">
         <v>0.12240228702464599</v>
       </c>
-      <c r="O149">
+      <c r="P149">
         <v>1.5262853718088303</v>
-      </c>
-      <c r="P149">
-        <v>-1.6128990321121601</v>
       </c>
       <c r="Q149">
         <v>0.25120700191793804</v>
@@ -27488,13 +27464,13 @@
         <v>-0.25875462592660997</v>
       </c>
       <c r="N150">
+        <v>0.862993613330306</v>
+      </c>
+      <c r="O150">
         <v>0.12336095811207902</v>
       </c>
-      <c r="O150">
+      <c r="P150">
         <v>1.5237631984847702</v>
-      </c>
-      <c r="P150">
-        <v>-1.6178996631400901</v>
       </c>
       <c r="Q150">
         <v>0.24949106881535102</v>
@@ -27670,13 +27646,13 @@
         <v>-0.26203741301313599</v>
       </c>
       <c r="N151">
+        <v>0.85527462775676</v>
+      </c>
+      <c r="O151">
         <v>0.12432020078450098</v>
       </c>
-      <c r="O151">
+      <c r="P151">
         <v>1.5211035684124801</v>
-      </c>
-      <c r="P151">
-        <v>-1.62296750647884</v>
       </c>
       <c r="Q151">
         <v>0.24773154513074799</v>
@@ -27852,13 +27828,13 @@
         <v>-0.26537961375935898</v>
       </c>
       <c r="N152">
+        <v>0.84744583185470601</v>
+      </c>
+      <c r="O152">
         <v>0.125280003834363</v>
       </c>
-      <c r="O152">
+      <c r="P152">
         <v>1.51830917682233</v>
-      </c>
-      <c r="P152">
-        <v>-1.6281012442399601</v>
       </c>
       <c r="Q152">
         <v>0.24592928558142396</v>
@@ -28034,13 +28010,13 @@
         <v>-0.26878003989208399</v>
       </c>
       <c r="N153">
+        <v>0.83950942183071209</v>
+      </c>
+      <c r="O153">
         <v>0.12624035605411602</v>
       </c>
-      <c r="O153">
+      <c r="P153">
         <v>1.51538271894467</v>
-      </c>
-      <c r="P153">
-        <v>-1.6332995585350001</v>
       </c>
       <c r="Q153">
         <v>0.24408514488467303</v>
@@ -28216,13 +28192,13 @@
         <v>-0.27223750313811701</v>
       </c>
       <c r="N154">
+        <v>0.83146759389134917</v>
+      </c>
+      <c r="O154">
         <v>0.12720124623621198</v>
       </c>
-      <c r="O154">
+      <c r="P154">
         <v>1.5123268900098601</v>
-      </c>
-      <c r="P154">
-        <v>-1.6385611314755202</v>
       </c>
       <c r="Q154">
         <v>0.24219997775779001</v>
@@ -28398,13 +28374,13 @@
         <v>-0.27575081522426503</v>
       </c>
       <c r="N155">
+        <v>0.82332254424318696</v>
+      </c>
+      <c r="O155">
         <v>0.12816266317310199</v>
       </c>
-      <c r="O155">
+      <c r="P155">
         <v>1.50914438524825</v>
-      </c>
-      <c r="P155">
-        <v>-1.6438846451730702</v>
       </c>
       <c r="Q155">
         <v>0.240274638918068</v>
@@ -28580,13 +28556,13 @@
         <v>-0.279318787877334</v>
       </c>
       <c r="N156">
+        <v>0.81507646909279796</v>
+      </c>
+      <c r="O156">
         <v>0.129124595657236</v>
       </c>
-      <c r="O156">
+      <c r="P156">
         <v>1.5058378998902</v>
-      </c>
-      <c r="P156">
-        <v>-1.6492687817392</v>
       </c>
       <c r="Q156">
         <v>0.23830998308280299</v>
@@ -28762,13 +28738,13 @@
         <v>-0.28294023282413</v>
       </c>
       <c r="N157">
+        <v>0.80673156464674789</v>
+      </c>
+      <c r="O157">
         <v>0.13008703248106698</v>
       </c>
-      <c r="O157">
+      <c r="P157">
         <v>1.5024101291660699</v>
-      </c>
-      <c r="P157">
-        <v>-1.6547122232854599</v>
       </c>
       <c r="Q157">
         <v>0.23630686496928799</v>
@@ -28944,13 +28920,13 @@
         <v>-0.28661396179145804</v>
       </c>
       <c r="N158">
+        <v>0.79829002711161212</v>
+      </c>
+      <c r="O158">
         <v>0.131049962437045</v>
       </c>
-      <c r="O158">
+      <c r="P158">
         <v>1.4988637683062198</v>
-      </c>
-      <c r="P158">
-        <v>-1.6602136519234101</v>
       </c>
       <c r="Q158">
         <v>0.23426613929481802</v>
@@ -29126,13 +29102,13 @@
         <v>-0.29033878650612605</v>
       </c>
       <c r="N159">
+        <v>0.78975405269395793</v>
+      </c>
+      <c r="O159">
         <v>0.132013374317621</v>
       </c>
-      <c r="O159">
+      <c r="P159">
         <v>1.4952015125409999</v>
-      </c>
-      <c r="P159">
-        <v>-1.6657717497646001</v>
       </c>
       <c r="Q159">
         <v>0.23218866077668898</v>
@@ -29308,13 +29284,13 @@
         <v>-0.29411351869493796</v>
       </c>
       <c r="N160">
+        <v>0.78112583760035703</v>
+      </c>
+      <c r="O160">
         <v>0.13297725691524701</v>
       </c>
-      <c r="O160">
+      <c r="P160">
         <v>1.49142605710078</v>
-      </c>
-      <c r="P160">
-        <v>-1.6713851989205801</v>
       </c>
       <c r="Q160">
         <v>0.230075284132193</v>
@@ -29490,13 +29466,13 @@
         <v>-0.29793697008470099</v>
       </c>
       <c r="N161">
+        <v>0.77240757803737714</v>
+      </c>
+      <c r="O161">
         <v>0.13394159902237401</v>
       </c>
-      <c r="O161">
+      <c r="P161">
         <v>1.4875400972158999</v>
-      </c>
-      <c r="P161">
-        <v>-1.6770526815029099</v>
       </c>
       <c r="Q161">
         <v>0.227926864078625</v>
@@ -29672,13 +29648,13 @@
         <v>-0.30180795240222197</v>
       </c>
       <c r="N162">
+        <v>0.76360147021158997</v>
+      </c>
+      <c r="O162">
         <v>0.134906389431453</v>
       </c>
-      <c r="O162">
+      <c r="P162">
         <v>1.4835463281167298</v>
-      </c>
-      <c r="P162">
-        <v>-1.68277287962313</v>
       </c>
       <c r="Q162">
         <v>0.22574425533328102</v>
@@ -29854,13 +29830,13 @@
         <v>-0.30572527737430605</v>
       </c>
       <c r="N163">
+        <v>0.75470971032956702</v>
+      </c>
+      <c r="O163">
         <v>0.13587161693493599</v>
       </c>
-      <c r="O163">
+      <c r="P163">
         <v>1.4794474450336199</v>
-      </c>
-      <c r="P163">
-        <v>-1.6885444753928001</v>
       </c>
       <c r="Q163">
         <v>0.22352831261345399</v>
@@ -30036,13 +30012,13 @@
         <v>-0.309687756727759</v>
       </c>
       <c r="N164">
+        <v>0.74573449459787589</v>
+      </c>
+      <c r="O164">
         <v>0.13683727032527301</v>
       </c>
-      <c r="O164">
+      <c r="P164">
         <v>1.4752461431969299</v>
-      </c>
-      <c r="P164">
-        <v>-1.6943661509234802</v>
       </c>
       <c r="Q164">
         <v>0.22127989063643802</v>
@@ -30218,13 +30194,13 @@
         <v>-0.31369420218938698</v>
       </c>
       <c r="N165">
+        <v>0.73667801922308807</v>
+      </c>
+      <c r="O165">
         <v>0.13780333839491501</v>
       </c>
-      <c r="O165">
+      <c r="P165">
         <v>1.4709451178370201</v>
-      </c>
-      <c r="P165">
-        <v>-1.7002365883267099</v>
       </c>
       <c r="Q165">
         <v>0.21899984411952897</v>
@@ -30400,13 +30376,13 @@
         <v>-0.31774342548599699</v>
       </c>
       <c r="N166">
+        <v>0.72754248041177283</v>
+      </c>
+      <c r="O166">
         <v>0.13876980993631502</v>
       </c>
-      <c r="O166">
+      <c r="P166">
         <v>1.46654706418425</v>
-      </c>
-      <c r="P166">
-        <v>-1.7061544697140401</v>
       </c>
       <c r="Q166">
         <v>0.21668902778001997</v>
@@ -30582,13 +30558,13 @@
         <v>-0.32183423834439395</v>
       </c>
       <c r="N167">
+        <v>0.718330074370503</v>
+      </c>
+      <c r="O167">
         <v>0.139736673741922</v>
       </c>
-      <c r="O167">
+      <c r="P167">
         <v>1.4620546774689698</v>
-      </c>
-      <c r="P167">
-        <v>-1.7121184771970399</v>
       </c>
       <c r="Q167">
         <v>0.21434829633520602</v>
@@ -30764,13 +30740,13 @@
         <v>-0.32596545249138503</v>
       </c>
       <c r="N168">
+        <v>0.70904299730584597</v>
+      </c>
+      <c r="O168">
         <v>0.14070391860418899</v>
       </c>
-      <c r="O168">
+      <c r="P168">
         <v>1.4574706529215402</v>
-      </c>
-      <c r="P168">
-        <v>-1.71812729288725</v>
       </c>
       <c r="Q168">
         <v>0.21197850450238198</v>
@@ -30946,13 +30922,13 @@
         <v>-0.330135879653775</v>
       </c>
       <c r="N169">
+        <v>0.69968344542437289</v>
+      </c>
+      <c r="O169">
         <v>0.14167153331556601</v>
       </c>
-      <c r="O169">
+      <c r="P169">
         <v>1.4527976857723199</v>
-      </c>
-      <c r="P169">
-        <v>-1.7241795988962201</v>
       </c>
       <c r="Q169">
         <v>0.20958050699884198</v>
@@ -31128,13 +31104,13 @@
         <v>-0.33434433155837201</v>
       </c>
       <c r="N170">
+        <v>0.69025361493265391</v>
+      </c>
+      <c r="O170">
         <v>0.142639506668505</v>
       </c>
-      <c r="O170">
+      <c r="P170">
         <v>1.4480384712516601</v>
-      </c>
-      <c r="P170">
-        <v>-1.7302740773355099</v>
       </c>
       <c r="Q170">
         <v>0.20715515854187999</v>
@@ -31310,13 +31286,13 @@
         <v>-0.33858961993197906</v>
       </c>
       <c r="N171">
+        <v>0.68075570203725899</v>
+      </c>
+      <c r="O171">
         <v>0.143607827455457</v>
       </c>
-      <c r="O171">
+      <c r="P171">
         <v>1.44319570458992</v>
-      </c>
-      <c r="P171">
-        <v>-1.7364094103166801</v>
       </c>
       <c r="Q171">
         <v>0.20470331384879001</v>
@@ -31492,13 +31468,13 @@
         <v>-0.34287055650140502</v>
       </c>
       <c r="N172">
+        <v>0.67119190294475894</v>
+      </c>
+      <c r="O172">
         <v>0.144576484468873</v>
       </c>
-      <c r="O172">
+      <c r="P172">
         <v>1.4382720810174598</v>
-      </c>
-      <c r="P172">
-        <v>-1.7425842799512601</v>
       </c>
       <c r="Q172">
         <v>0.20222582763686803</v>
@@ -31674,13 +31650,13 @@
         <v>-0.347185952993455</v>
       </c>
       <c r="N173">
+        <v>0.66156441386172404</v>
+      </c>
+      <c r="O173">
         <v>0.14554546650120401</v>
       </c>
-      <c r="O173">
+      <c r="P173">
         <v>1.4332702957646497</v>
-      </c>
-      <c r="P173">
-        <v>-1.74879736835082</v>
       </c>
       <c r="Q173">
         <v>0.19972355462340699</v>
@@ -31856,13 +31832,13 @@
         <v>-0.351534621134935</v>
       </c>
       <c r="N174">
+        <v>0.651875430994724</v>
+      </c>
+      <c r="O174">
         <v>0.14651476234490196</v>
       </c>
-      <c r="O174">
+      <c r="P174">
         <v>1.4281930440618202</v>
-      </c>
-      <c r="P174">
-        <v>-1.7550473576269099</v>
       </c>
       <c r="Q174">
         <v>0.197197349525703</v>
@@ -32038,13 +32014,13 @@
         <v>-0.35591537265265005</v>
       </c>
       <c r="N175">
+        <v>0.64212715055032799</v>
+      </c>
+      <c r="O175">
         <v>0.147484360792418</v>
       </c>
-      <c r="O175">
+      <c r="P175">
         <v>1.4230430211393503</v>
-      </c>
-      <c r="P175">
-        <v>-1.76133292989108</v>
       </c>
       <c r="Q175">
         <v>0.19464806706104898</v>
@@ -32220,13 +32196,13 @@
         <v>-0.36032701927340799</v>
       </c>
       <c r="N176">
+        <v>0.63232176873510793</v>
+      </c>
+      <c r="O176">
         <v>0.14845425063620202</v>
       </c>
-      <c r="O176">
+      <c r="P176">
         <v>1.41782292222758</v>
-      </c>
-      <c r="P176">
-        <v>-1.7676527672548799</v>
       </c>
       <c r="Q176">
         <v>0.192076561946739</v>
@@ -32402,13 +32378,13 @@
         <v>-0.36476837272401502</v>
       </c>
       <c r="N177">
+        <v>0.62246148175563398</v>
+      </c>
+      <c r="O177">
         <v>0.14942442066870601</v>
       </c>
-      <c r="O177">
+      <c r="P177">
         <v>1.4125354425568799</v>
-      </c>
-      <c r="P177">
-        <v>-1.7740055518298701</v>
       </c>
       <c r="Q177">
         <v>0.18948368890006895</v>
@@ -32584,13 +32560,13 @@
         <v>-0.36923824473127498</v>
       </c>
       <c r="N178">
+        <v>0.61254848581847399</v>
+      </c>
+      <c r="O178">
         <v>0.150394859682382</v>
       </c>
-      <c r="O178">
+      <c r="P178">
         <v>1.4071832773576101</v>
-      </c>
-      <c r="P178">
-        <v>-1.7803899657275901</v>
       </c>
       <c r="Q178">
         <v>0.18687030263833299</v>
@@ -32766,13 +32742,13 @@
         <v>-0.37373544702199601</v>
       </c>
       <c r="N179">
+        <v>0.60258497713020109</v>
+      </c>
+      <c r="O179">
         <v>0.15136555646968</v>
       </c>
-      <c r="O179">
+      <c r="P179">
         <v>1.4017691218601103</v>
-      </c>
-      <c r="P179">
-        <v>-1.7868046910596103</v>
       </c>
       <c r="Q179">
         <v>0.184237257878825</v>
@@ -32948,13 +32924,13 @@
         <v>-0.37825879132298296</v>
       </c>
       <c r="N180">
+        <v>0.59257315189738402</v>
+      </c>
+      <c r="O180">
         <v>0.152336499823051</v>
       </c>
-      <c r="O180">
+      <c r="P180">
         <v>1.3962956712947601</v>
-      </c>
-      <c r="P180">
-        <v>-1.7932484099374699</v>
       </c>
       <c r="Q180">
         <v>0.18158540933883999</v>
@@ -33130,13 +33106,13 @@
         <v>-0.38280708936104296</v>
       </c>
       <c r="N181">
+        <v>0.58251520632659204</v>
+      </c>
+      <c r="O181">
         <v>0.15330767853494801</v>
       </c>
-      <c r="O181">
+      <c r="P181">
         <v>1.3907656208918997</v>
-      </c>
-      <c r="P181">
-        <v>-1.7997198044727201</v>
       </c>
       <c r="Q181">
         <v>0.17891561173567103</v>
@@ -33312,13 +33288,13 @@
         <v>-0.38737915286298102</v>
       </c>
       <c r="N182">
+        <v>0.57241333662439697</v>
+      </c>
+      <c r="O182">
         <v>0.15427908139782001</v>
       </c>
-      <c r="O182">
+      <c r="P182">
         <v>1.3851816658818898</v>
-      </c>
-      <c r="P182">
-        <v>-1.8062175567769299</v>
       </c>
       <c r="Q182">
         <v>0.176228719786614</v>
@@ -33494,13 +33470,13 @@
         <v>-0.39197379355560402</v>
       </c>
       <c r="N183">
+        <v>0.56226973899736787</v>
+      </c>
+      <c r="O183">
         <v>0.15525069720411999</v>
       </c>
-      <c r="O183">
+      <c r="P183">
         <v>1.3795465014951001</v>
-      </c>
-      <c r="P183">
-        <v>-1.8127403489616298</v>
       </c>
       <c r="Q183">
         <v>0.17352558820896302</v>
@@ -33676,13 +33652,13 @@
         <v>-0.39658982316571706</v>
       </c>
       <c r="N184">
+        <v>0.55208660965207701</v>
+      </c>
+      <c r="O184">
         <v>0.156222514746299</v>
       </c>
-      <c r="O184">
+      <c r="P184">
         <v>1.3738628229618701</v>
-      </c>
-      <c r="P184">
-        <v>-1.8192868631383898</v>
       </c>
       <c r="Q184">
         <v>0.17080707172001197</v>
@@ -33858,13 +33834,13 @@
         <v>-0.40122605342012801</v>
       </c>
       <c r="N185">
+        <v>0.54186614479509099</v>
+      </c>
+      <c r="O185">
         <v>0.15719452281680601</v>
       </c>
-      <c r="O185">
+      <c r="P185">
         <v>1.3681333255125601</v>
-      </c>
-      <c r="P185">
-        <v>-1.8258557814187601</v>
       </c>
       <c r="Q185">
         <v>0.16807402503705499</v>
@@ -34040,13 +34016,13 @@
         <v>-0.40588129604564099</v>
       </c>
       <c r="N186">
+        <v>0.53161054063298407</v>
+      </c>
+      <c r="O186">
         <v>0.158166710208095</v>
       </c>
-      <c r="O186">
+      <c r="P186">
         <v>1.3623607043775401</v>
-      </c>
-      <c r="P186">
-        <v>-1.8324457859142802</v>
       </c>
       <c r="Q186">
         <v>0.165327302877389</v>
@@ -34222,13 +34198,13 @@
         <v>-0.41055436276906299</v>
       </c>
       <c r="N187">
+        <v>0.52132199337232299</v>
+      </c>
+      <c r="O187">
         <v>0.15913906571261599</v>
       </c>
-      <c r="O187">
+      <c r="P187">
         <v>1.3565476547871598</v>
-      </c>
-      <c r="P187">
-        <v>-1.83905555873652</v>
       </c>
       <c r="Q187">
         <v>0.162567759958305</v>
@@ -34404,13 +34380,13 @@
         <v>-0.41524406531719998</v>
       </c>
       <c r="N188">
+        <v>0.51100269921968</v>
+      </c>
+      <c r="O188">
         <v>0.16011157812282001</v>
       </c>
-      <c r="O188">
+      <c r="P188">
         <v>1.35069687197178</v>
-      </c>
-      <c r="P188">
-        <v>-1.8456837819970102</v>
       </c>
       <c r="Q188">
         <v>0.15979625099710001</v>
@@ -34586,13 +34562,13 @@
         <v>-0.41994921541685903</v>
       </c>
       <c r="N189">
+        <v>0.50065485438162394</v>
+      </c>
+      <c r="O189">
         <v>0.16108423623115803</v>
       </c>
-      <c r="O189">
+      <c r="P189">
         <v>1.3448110511617499</v>
-      </c>
-      <c r="P189">
-        <v>-1.8523291378073301</v>
       </c>
       <c r="Q189">
         <v>0.15701363071106697</v>
@@ -34768,13 +34744,13 @@
         <v>-0.42466862479484402</v>
       </c>
       <c r="N190">
+        <v>0.49028065506472707</v>
+      </c>
+      <c r="O190">
         <v>0.16205702883008199</v>
       </c>
-      <c r="O190">
+      <c r="P190">
         <v>1.33889288758743</v>
-      </c>
-      <c r="P190">
-        <v>-1.85899030827901</v>
       </c>
       <c r="Q190">
         <v>0.1542207538175</v>
@@ -34950,13 +34926,13 @@
         <v>-0.42940110517796204</v>
       </c>
       <c r="N191">
+        <v>0.47988229747555705</v>
+      </c>
+      <c r="O191">
         <v>0.16302994471204299</v>
       </c>
-      <c r="O191">
+      <c r="P191">
         <v>1.3329450764791799</v>
-      </c>
-      <c r="P191">
-        <v>-1.8656659755236202</v>
       </c>
       <c r="Q191">
         <v>0.15141847503369599</v>
@@ -35132,13 +35108,13 @@
         <v>-0.43414546829302003</v>
       </c>
       <c r="N192">
+        <v>0.46946197782068605</v>
+      </c>
+      <c r="O192">
         <v>0.16400297266949201</v>
       </c>
-      <c r="O192">
+      <c r="P192">
         <v>1.32697031306736</v>
-      </c>
-      <c r="P192">
-        <v>-1.8723548216527</v>
       </c>
       <c r="Q192">
         <v>0.14860764907694599</v>
@@ -35314,13 +35290,13 @@
         <v>-0.43890052586682393</v>
       </c>
       <c r="N193">
+        <v>0.459021892306682</v>
+      </c>
+      <c r="O193">
         <v>0.16497610149488098</v>
       </c>
-      <c r="O193">
+      <c r="P193">
         <v>1.32097129258232</v>
-      </c>
-      <c r="P193">
-        <v>-1.8790555287778101</v>
       </c>
       <c r="Q193">
         <v>0.14578913066454699</v>
@@ -35496,13 +35472,13 @@
         <v>-0.44366508962617801</v>
       </c>
       <c r="N194">
+        <v>0.44856423714011795</v>
+      </c>
+      <c r="O194">
         <v>0.16594931998065901</v>
       </c>
-      <c r="O194">
+      <c r="P194">
         <v>1.3149507102544198</v>
-      </c>
-      <c r="P194">
-        <v>-1.8857667790104999</v>
       </c>
       <c r="Q194">
         <v>0.142963774513793</v>
@@ -35678,13 +35654,13 @@
         <v>-0.44843797129789004</v>
       </c>
       <c r="N195">
+        <v>0.438091208527562</v>
+      </c>
+      <c r="O195">
         <v>0.16692261691927898</v>
       </c>
-      <c r="O195">
+      <c r="P195">
         <v>1.3089112613140199</v>
-      </c>
-      <c r="P195">
-        <v>-1.8924872544623201</v>
       </c>
       <c r="Q195">
         <v>0.140132435341978</v>
@@ -35860,13 +35836,13 @@
         <v>-0.45321798260876595</v>
       </c>
       <c r="N196">
+        <v>0.42760500267558393</v>
+      </c>
+      <c r="O196">
         <v>0.16789598110319198</v>
       </c>
-      <c r="O196">
+      <c r="P196">
         <v>1.30285564099148</v>
-      </c>
-      <c r="P196">
-        <v>-1.8992156372448199</v>
       </c>
       <c r="Q196">
         <v>0.137295967866396</v>
@@ -36042,13 +36018,13 @@
         <v>-0.45800393528561101</v>
       </c>
       <c r="N197">
+        <v>0.41710781579075701</v>
+      </c>
+      <c r="O197">
         <v>0.16886940132484901</v>
       </c>
-      <c r="O197">
+      <c r="P197">
         <v>1.29678654451715</v>
-      </c>
-      <c r="P197">
-        <v>-1.9059506094695602</v>
       </c>
       <c r="Q197">
         <v>0.13445522680434199</v>
@@ -36224,13 +36200,13 @@
         <v>-0.46279464105523205</v>
       </c>
       <c r="N198">
+        <v>0.40660184407964794</v>
+      </c>
+      <c r="O198">
         <v>0.16984286637670201</v>
       </c>
-      <c r="O198">
+      <c r="P198">
         <v>1.29070666712139</v>
-      </c>
-      <c r="P198">
-        <v>-1.9126908532480902</v>
       </c>
       <c r="Q198">
         <v>0.13161106687311</v>
@@ -36406,13 +36382,13 @@
         <v>-0.467588911644435</v>
       </c>
       <c r="N199">
+        <v>0.39608928374882901</v>
+      </c>
+      <c r="O199">
         <v>0.17081636505120001</v>
       </c>
-      <c r="O199">
+      <c r="P199">
         <v>1.28461870403456</v>
-      </c>
-      <c r="P199">
-        <v>-1.91943505069196</v>
       </c>
       <c r="Q199">
         <v>0.12876434278999499</v>
@@ -36588,13 +36564,13 @@
         <v>-0.47238555878002597</v>
       </c>
       <c r="N200">
+        <v>0.38557233100486898</v>
+      </c>
+      <c r="O200">
         <v>0.17178988614079599</v>
       </c>
-      <c r="O200">
+      <c r="P200">
         <v>1.27852535048702</v>
-      </c>
-      <c r="P200">
-        <v>-1.9261818839127298</v>
       </c>
       <c r="Q200">
         <v>0.12591590927229102</v>
@@ -36770,13 +36746,13 @@
         <v>-0.47718339418881106</v>
       </c>
       <c r="N201">
+        <v>0.37505318205433896</v>
+      </c>
+      <c r="O201">
         <v>0.17276341843794099</v>
       </c>
-      <c r="O201">
+      <c r="P201">
         <v>1.2724293017091102</v>
-      </c>
-      <c r="P201">
-        <v>-1.9329300350219398</v>
       </c>
       <c r="Q201">
         <v>0.12306662103729199</v>
